--- a/PostOfficeWebApp/PostOffice.Web/Reports/Product_20170529023816.xlsx
+++ b/PostOfficeWebApp/PostOffice.Web/Reports/Product_20170529023816.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\postoffice-v1\PostOfficeWebApp\PostOffice.Web\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -150,19 +157,74 @@
   </si>
   <si>
     <t>BCUT trong nước</t>
+  </si>
+  <si>
+    <t>TỔNG CÔNG TY BƯU ĐIỆN VIỆT NAM
+BƯU ĐIỆN TỈNH SÓC TRĂNG</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TỔNG HỢP</t>
+  </si>
+  <si>
+    <t>Từ 01/05/2017 đến 31/05/2017</t>
+  </si>
+  <si>
+    <t>Tất cả</t>
+  </si>
+  <si>
+    <t>Thời gian báo cáo:</t>
+  </si>
+  <si>
+    <t>Đơn vị báo cáo:</t>
+  </si>
+  <si>
+    <t>Dịch vụ báo cáo:</t>
+  </si>
+  <si>
+    <t>Mỹ Xuyên</t>
+  </si>
+  <si>
+    <t>Người lập báo cáo</t>
+  </si>
+  <si>
+    <t>Users.FullName</t>
+  </si>
+  <si>
+    <t>Thời gian in báo cáo: 31/05/2017 08:32:12.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,579 +245,1032 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H31">
-  <autoFilter ref="A1:H31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:H38" headerRowDxfId="4" dataDxfId="2" totalsRowDxfId="3">
+  <autoFilter ref="A8:H38"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Unit"/>
-    <tableColumn id="4" name="VAT"/>
-    <tableColumn id="5" name="GroupName"/>
-    <tableColumn id="6" name="Description"/>
-    <tableColumn id="7" name="CreatedBy"/>
-    <tableColumn id="8" name="CreatedDate"/>
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Unit" dataDxfId="10"/>
+    <tableColumn id="4" name="VAT" dataDxfId="9"/>
+    <tableColumn id="5" name="GroupName" dataDxfId="8"/>
+    <tableColumn id="6" name="Description" dataDxfId="7"/>
+    <tableColumn id="7" name="CreatedBy" dataDxfId="6"/>
+    <tableColumn id="8" name="CreatedDate" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.9080439976283" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5416935511998" customWidth="1"/>
-    <col min="6" max="6" width="13.6918073381696" customWidth="1"/>
-    <col min="7" max="7" width="12.7546789986747" customWidth="1"/>
-    <col min="8" max="8" width="14.7629568917411" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25">
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>1522</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H9" s="9">
         <v>42880</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>1528</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D10" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H10" s="9">
         <v>42870</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>1539</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H11" s="9">
         <v>42869</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>1540</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H12" s="9">
         <v>42866</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>1541</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D13" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H13" s="9">
         <v>42861</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>1551</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D14" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H14" s="9">
         <v>42858</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>1556</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H15" s="9">
         <v>42884</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>1563</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D16" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H16" s="9">
         <v>42878</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>1565</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D17" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H17" s="9">
         <v>42874</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>1583</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D18" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H18" s="9">
         <v>42871</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>1593</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D19" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H19" s="9">
         <v>42868</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>1600</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H20" s="9">
         <v>42882</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>1609</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="1">
-        <v>42870.8571746875</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="H21" s="9">
+        <v>42870.857174687502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>1610</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="1">
-        <v>42870.8575048611</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+      <c r="H22" s="9">
+        <v>42870.857504861102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>1611</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="D23" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="1">
-        <v>42872.4492674769</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+      <c r="H23" s="9">
+        <v>42872.449267476899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>1612</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D24" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="1">
-        <v>42874.8227429051</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="H24" s="9">
+        <v>42874.822742905097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>1613</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="1">
-        <v>42874.8447584144</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+      <c r="H25" s="9">
+        <v>42874.844758414401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>1614</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D26" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H26" s="9">
         <v>42877.3769410069</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>1615</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D27" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H27" s="9">
         <v>42884.3913741898</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>1616</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D28" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H28" s="9">
         <v>42884.3924786227</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>1617</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D29" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="1">
-        <v>42884.3930054051</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
+      <c r="H29" s="9">
+        <v>42884.393005405102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>1618</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D30" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="1">
-        <v>42884.3935257292</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
+      <c r="H30" s="9">
+        <v>42884.393525729203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>1619</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D31" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="1">
-        <v>42884.3941840625</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
+      <c r="H31" s="9">
+        <v>42884.394184062498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>1620</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D32" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="1">
-        <v>42884.3956966782</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
+      <c r="H32" s="9">
+        <v>42884.395696678199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>1621</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D33" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="1">
-        <v>42884.3963867708</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
+      <c r="H33" s="9">
+        <v>42884.396386770801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>1622</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D34" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="1">
-        <v>42884.3968701389</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
+      <c r="H34" s="9">
+        <v>42884.396870138902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>1623</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D35" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="1">
-        <v>42884.3984467593</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
+      <c r="H35" s="9">
+        <v>42884.398446759304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>1624</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D36" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="1">
-        <v>42884.3989337963</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
+      <c r="H36" s="9">
+        <v>42884.398933796299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>1625</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D37" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="1">
-        <v>42884.3999978819</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
+      <c r="H37" s="9">
+        <v>42884.399997881897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>1626</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D38" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="1">
-        <v>42884.4003068634</v>
-      </c>
+      <c r="H38" s="9">
+        <v>42884.400306863397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="F41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="F46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="E48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
   </sheetData>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
+  <mergeCells count="11">
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>